--- a/ig/ch-atc/StructureDefinition-HpdAuditEvent.xlsx
+++ b/ig/ch-atc/StructureDefinition-HpdAuditEvent.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0-ballot</t>
+    <t>3.3.0</t>
   </si>
   <si>
     <t>Name</t>
